--- a/environhub/chipkomovement.xlsx
+++ b/environhub/chipkomovement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875"/>
+    <workbookView windowWidth="22943" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Summary</t>
   </si>
@@ -27,49 +27,28 @@
     <t>Chipko movement, also called Chipko andolan, nonviolent social and ecological movement by rural villagers, particularly women, in India in the 1970s, aimed at protecting trees and forests slated for government-backed logging. The movement originated in the Himalayan region of Uttar Pradesh (later Uttarakhand) in 1973 and quickly spread throughout the Indian Himalayas. The Hindi word chipko means “to hug” or “to cling to” and reflects the demonstrators’ primary tactic of embracing the trees to impede the loggers.</t>
   </si>
   <si>
+    <t>Event Type</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Event Type</t>
+    <t>Actions taken</t>
   </si>
   <si>
-    <t>Event Description</t>
-  </si>
-  <si>
-    <t>Public involvement</t>
-  </si>
-  <si>
-    <t>the Sangha workers held a demonstration in Gopeshwar to protest against the policies of the Forest Department</t>
-  </si>
-  <si>
-    <t>rallies and marches were held in late 1972, but to little effect, until a decision to take direct action was taken. The first such occasion occurred when the Forest Department turned down the Sangh's annual request for ten ash trees for its farm tools workshop, and instead awarded a contract for 300 trees to Simon Company, a sporting goods manufacturer in distant Allahabad, to make tennis racquets</t>
-  </si>
-  <si>
-    <t>The lumbermen arrived at Gopeshwar and they were confronted at village Mandal  where about hundred villagers and DGSS workers were beating drums and shouting slogans, thus forcing the contractors and their lumbermen to retreat.</t>
+    <t>24/4/1973</t>
   </si>
   <si>
     <t>Political intervention</t>
   </si>
   <si>
-    <t>The final flash point began a few months later, when the government announced an auction for 2,500 trees near Reni village, overlooking the Alaknanda River. Bhatt set out for the villages in the Reni area, and incited the villagers, who decided to protest against the actions of the government by hugging the trees</t>
-  </si>
-  <si>
-    <t>the day the lumbermen were to cut the trees, the men of Reni village and DGSS workers were in Chamoli, diverted by state government and contractors to a fictional compensation payment site, while back home labourers arrived by the truckload to start logging operations.Gaura Devi led 27 of the village women to the site and confronted the loggers. When all talking failed, and the loggers started to shout and abuse the women, threatening them with guns, the women resorted to hugging the trees to stop them from being felled. This went on into late hours. The women kept an all-night vigil guarding their trees from the cutters until a few of them relented and left the village.</t>
-  </si>
-  <si>
-    <t>In 1977, in another area, women tied sacred threads, called Rakhi, around trees destined for felling. According to the Hindu tradition of Raksha Bandhan, the Rakhi signifies a bond between brother and sisters. They declared that the trees would be saved even if it cost them their lives.</t>
-  </si>
-  <si>
-    <t>One of the prominent Chipko leaders, Gandhian Sunderlal Bahuguna, took a 5,000 kilometre trans-Himalaya foot march in 1981–83, spreading the Chipko message to a far greater area.</t>
-  </si>
-  <si>
-    <t>The movement achieved a victory when the government issued a ban on felling of trees in the Himalayan regions for fifteen years in 1980 by then Prime Minister Indira Gandhi, until the green cover was fully restored</t>
+    <t>25/3/1974</t>
   </si>
   <si>
     <t>Media intervention</t>
   </si>
   <si>
-    <t>A Chipko movement conservation initiative was marked by Google Doodle on its 45th anniversary.</t>
+    <t>26/3/2018</t>
   </si>
   <si>
     <t>Name</t>
@@ -218,14 +197,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,13 +236,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Sans-serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Sans-serif"/>
@@ -277,61 +249,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,66 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -427,6 +286,119 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -443,67 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,31 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,31 +487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +565,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,21 +606,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,6 +625,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,200 +692,176 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,15 +873,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1208,7 @@
   <sheetPr/>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1224,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2266,8 +2241,8 @@
   <sheetPr/>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2283,117 +2258,113 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A2" s="10">
-        <v>26207</v>
-      </c>
       <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>25943</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>26309</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A3" s="10">
-        <v>26604</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>27030</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A4" s="10">
-        <v>26778</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>28223</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>29869</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>29557</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A5" s="10">
-        <v>27030</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A6" s="12">
-        <v>27113</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A7" s="10">
-        <v>28341</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A8" s="10">
-        <v>29869</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A9" s="10">
-        <v>29263</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A10" s="10">
-        <v>43185</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C12" s="7"/>
-    </row>
+    </row>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1" spans="3:3">
       <c r="C13" s="7"/>
     </row>
@@ -2415,31 +2386,40 @@
     <row r="19" ht="12.75" customHeight="1" spans="3:3">
       <c r="C19" s="7"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="3:3">
+    <row r="20" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A20" s="11"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="3:3">
+    <row r="21" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A21" s="11"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="3:3">
+    <row r="22" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A22" s="11"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="3:3">
+    <row r="23" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A23" s="11"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1" spans="3:3">
+    <row r="24" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A24" s="14"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1" spans="3:3">
+    <row r="25" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A25" s="11"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1" spans="3:3">
+    <row r="26" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A26" s="11"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1" spans="3:3">
+    <row r="27" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A27" s="11"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1" spans="3:3">
+    <row r="28" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A28" s="11"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" ht="12.75" customHeight="1" spans="3:3">
@@ -5359,12 +5339,6 @@
       <c r="C1000" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="the Sangha workers held a demonstration in Gopeshwar to protest against the policies of the Forest Department"/>
-    <hyperlink ref="C3" r:id="rId2" display="rallies and marches were held in late 1972, but to little effect, until a decision to take direct action was taken. The first such occasion occurred when the Forest Department turned down the Sangh's annual request for ten ash trees for its farm tools workshop, and instead awarded a contract for 300 trees to Simon Company, a sporting goods manufacturer in distant Allahabad, to make tennis racquets"/>
-    <hyperlink ref="C8" r:id="rId3" display="One of the prominent Chipko leaders, Gandhian Sunderlal Bahuguna, took a 5,000 kilometre trans-Himalaya foot march in 1981–83, spreading the Chipko message to a far greater area."/>
-    <hyperlink ref="C9" r:id="rId4" display="The movement achieved a victory when the government issued a ban on felling of trees in the Himalayan regions for fifteen years in 1980 by then Prime Minister Indira Gandhi, until the green cover was fully restored"/>
-  </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -5393,13 +5367,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5427,13 +5401,13 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
@@ -6461,15 +6435,15 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -6477,7 +6451,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>49</v>
@@ -6485,7 +6459,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>42</v>
@@ -6493,7 +6467,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>40</v>
@@ -6501,7 +6475,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>39</v>
@@ -6509,7 +6483,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>36</v>
@@ -6517,7 +6491,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>36</v>
@@ -6525,7 +6499,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>33</v>
@@ -6533,7 +6507,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>29</v>
@@ -6541,7 +6515,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
         <v>27</v>
@@ -6549,7 +6523,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>25</v>
@@ -6557,7 +6531,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3">
         <v>25</v>
@@ -6565,7 +6539,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>24</v>
@@ -6573,7 +6547,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>20</v>
@@ -6581,7 +6555,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
         <v>18</v>
@@ -6589,7 +6563,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3">
         <v>18</v>
@@ -6597,7 +6571,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
         <v>18</v>
@@ -6605,7 +6579,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -6613,7 +6587,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
         <v>17</v>
@@ -6621,7 +6595,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
         <v>17</v>
@@ -6629,7 +6603,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
         <v>17</v>
@@ -6637,7 +6611,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <v>16</v>
@@ -6645,7 +6619,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
         <v>15</v>
@@ -6653,7 +6627,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
         <v>15</v>
@@ -6661,7 +6635,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
         <v>15</v>
@@ -6669,7 +6643,7 @@
     </row>
     <row r="27" ht="12.75" customHeight="1" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
         <v>15</v>
@@ -6677,7 +6651,7 @@
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
         <v>15</v>
@@ -6685,7 +6659,7 @@
     </row>
     <row r="29" ht="12.75" customHeight="1" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <v>13</v>
@@ -6693,7 +6667,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <v>12</v>
@@ -6701,7 +6675,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3">
         <v>12</v>
@@ -6709,7 +6683,7 @@
     </row>
     <row r="32" ht="12.75" customHeight="1" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3">
         <v>11</v>
@@ -6717,7 +6691,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3">
         <v>11</v>
@@ -6725,7 +6699,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3">
         <v>9</v>
@@ -6733,7 +6707,7 @@
     </row>
     <row r="35" ht="12.75" customHeight="1" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <v>9</v>
@@ -6741,7 +6715,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -6749,7 +6723,7 @@
     </row>
     <row r="37" ht="12.75" customHeight="1" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -7745,10 +7719,10 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:2">
@@ -10065,17 +10039,17 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1"/>
